--- a/wiek_osob.xlsx
+++ b/wiek_osob.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zadania\Arkusz\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="50" windowWidth="14940" windowHeight="11730"/>
+    <workbookView xWindow="576" yWindow="144" windowWidth="22008" windowHeight="9504"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Dzisiaj:</t>
   </si>
@@ -81,22 +76,13 @@
   </si>
   <si>
     <t>Tłoczykrowa</t>
-  </si>
-  <si>
-    <t>Dziś</t>
-  </si>
-  <si>
-    <t>Urodziłem się</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/mmmm/yyyy"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,37 +91,22 @@
       <charset val="238"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Czcionka tekstu podstawowego"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="238"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <name val="Arial CE"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="16"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Czcionka tekstu podstawowego"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Czcionka tekstu podstawowego"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,30 +115,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor theme="4" tint="0.59999389629810485"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -176,122 +135,54 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -299,36 +190,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -336,14 +225,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -390,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -422,10 +303,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,7 +337,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -633,63 +512,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="5.25" customWidth="1"/>
-    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.58203125" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.58203125" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A1" s="17"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14">
+      <c r="D1" s="9">
         <f ca="1">TODAY()</f>
-        <v>43602</v>
-      </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="18"/>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+        <v>43941</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.2" thickBot="1">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A3" s="4">
+    <row r="3" spans="1:7" ht="16.2" thickBot="1">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -698,162 +574,123 @@
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="5">
         <v>15818</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A4" s="4">
+    <row r="4" spans="1:7" ht="16.2" thickBot="1">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="16">
-        <v>18760</v>
+      <c r="D4" s="5">
+        <v>36292</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A5" s="4">
+    <row r="5" spans="1:7" ht="16.2" thickBot="1">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="5">
         <v>22602</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A6" s="4">
+    <row r="6" spans="1:7" ht="16.2" thickBot="1">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="5">
         <v>28866</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A7" s="4">
+    <row r="7" spans="1:7" ht="16.2" thickBot="1">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="5">
         <v>36159</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A8" s="4">
+    <row r="8" spans="1:7" ht="16.2" thickBot="1">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="16">
-        <v>27591</v>
+      <c r="D8" s="5">
+        <v>40375</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:G1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="7"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
